--- a/template_pegase_v1/hplchydrolisedaa.xlsx
+++ b/template_pegase_v1/hplchydrolisedaa.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="78">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,21 +41,36 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>SamplePortion</t>
   </si>
   <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
+    <t>ResultUnit</t>
+  </si>
+  <si>
     <t>Acys</t>
   </si>
   <si>
     <t>Ala</t>
   </si>
   <si>
+    <t>Amq</t>
+  </si>
+  <si>
     <t>Arg</t>
   </si>
   <si>
     <t>Asp</t>
   </si>
   <si>
+    <t>Cys</t>
+  </si>
+  <si>
     <t>Glu</t>
   </si>
   <si>
@@ -74,6 +92,9 @@
     <t>Meso</t>
   </si>
   <si>
+    <t>Met</t>
+  </si>
+  <si>
     <t>Nh3</t>
   </si>
   <si>
@@ -101,7 +122,46 @@
     <t>Trp</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Unité du résultat</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>#date</t>
@@ -110,43 +170,82 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#float,  unit:µlormg</t>
-  </si>
-  <si>
-    <t>#float,  unit:g/100g</t>
-  </si>
-  <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t>#PriseEssai</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t>#float</t>
+  </si>
+  <si>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
+  </si>
+  <si>
+    <t># ex: 2.0</t>
+  </si>
+  <si>
+    <t># ex: mg</t>
+  </si>
+  <si>
+    <t># ex: mg/ml</t>
+  </si>
+  <si>
+    <t># 409.935 ou NA</t>
   </si>
 </sst>
 </file>
@@ -191,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -288,189 +387,463 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AA2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AB2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AC2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AD2" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="W3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Z3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AA3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AB3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AD3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/hplchydrolisedaa.xlsx
+++ b/template_pegase_v1/hplchydrolisedaa.xlsx
@@ -41,87 +41,87 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
+    <t>ResultUnit</t>
+  </si>
+  <si>
+    <t>Acys</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Amq</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>Meso</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>Nh3</t>
+  </si>
+  <si>
+    <t>OH_pro</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Trp</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
-    <t>SamplePortionUnit</t>
-  </si>
-  <si>
-    <t>ResultUnit</t>
-  </si>
-  <si>
-    <t>Acys</t>
-  </si>
-  <si>
-    <t>Ala</t>
-  </si>
-  <si>
-    <t>Amq</t>
-  </si>
-  <si>
-    <t>Arg</t>
-  </si>
-  <si>
-    <t>Asp</t>
-  </si>
-  <si>
-    <t>Cys</t>
-  </si>
-  <si>
-    <t>Glu</t>
-  </si>
-  <si>
-    <t>Gly</t>
-  </si>
-  <si>
-    <t>His</t>
-  </si>
-  <si>
-    <t>Ile</t>
-  </si>
-  <si>
-    <t>Leu</t>
-  </si>
-  <si>
-    <t>Lys</t>
-  </si>
-  <si>
-    <t>Meso</t>
-  </si>
-  <si>
-    <t>Met</t>
-  </si>
-  <si>
-    <t>Nh3</t>
-  </si>
-  <si>
-    <t>OH_pro</t>
-  </si>
-  <si>
-    <t>Phe</t>
-  </si>
-  <si>
-    <t>Pro</t>
-  </si>
-  <si>
-    <t>Ser</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>Tyr</t>
-  </si>
-  <si>
-    <t>Val</t>
-  </si>
-  <si>
-    <t>Trp</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -149,21 +149,21 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Unité du résultat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t># Commentaire</t>
   </si>
   <si>
-    <t># Prise d'essai</t>
-  </si>
-  <si>
-    <t># Unité de mesure de la prise d’essai</t>
-  </si>
-  <si>
-    <t># Unité du résultat</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>#date</t>
   </si>
   <si>
@@ -200,13 +200,13 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
-  </si>
-  <si>
-    <t># format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: nombre décimal ou NA</t>
   </si>
   <si>
     <t># ex: 12/06/2019</t>
@@ -447,70 +447,70 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s">
         <v>49</v>
@@ -545,16 +545,16 @@
         <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
         <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -623,7 +623,7 @@
         <v>52</v>
       </c>
       <c r="AJ3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -658,79 +658,79 @@
         <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s">
         <v>64</v>
@@ -765,16 +765,16 @@
         <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
         <v>77</v>
@@ -843,7 +843,7 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
